--- a/static/Dowload/教师信息导入模板.xlsx
+++ b/static/Dowload/教师信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="14070"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <r>
       <rPr>
@@ -57,7 +57,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="57"/>
+        <color rgb="FF339966"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -67,7 +67,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="57"/>
+        <color rgb="FF339966"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -363,14 +363,14 @@
         <charset val="134"/>
       </rPr>
       <t>教师岗位
-其他专业技能
+其他专业技能岗位
 管理岗位
 工勤技能岗位</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="57"/>
+        <color rgb="FF339966"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -397,15 +397,15 @@
       </rPr>
       <t>研究生
 大学本科
-大学专科和专科学校
-中等专业学校或中等技术学校
-技工学校
-高中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="57"/>
+大学专科
+中等职业教育
+中等师范
+其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF339966"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -460,7 +460,25 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名誉博士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -472,7 +490,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="57"/>
+        <color rgb="FF339966"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -484,12 +502,12 @@
     <t>直接填是或否</t>
   </si>
   <si>
+    <t>工号</t>
+  </si>
+  <si>
     <t>卡号</t>
   </si>
   <si>
-    <t>工号</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -556,18 +574,15 @@
     <t>最高学历</t>
   </si>
   <si>
+    <t>获得最高学位的院校或机构</t>
+  </si>
+  <si>
     <t>现任专业技术职务</t>
   </si>
   <si>
-    <t>获得最高学历的院校货机构</t>
-  </si>
-  <si>
     <t>最高学位层次</t>
   </si>
   <si>
-    <t>获得最高学位的院校或机构</t>
-  </si>
-  <si>
     <t>是否全日制师范专业毕业</t>
   </si>
   <si>
@@ -584,6 +599,21 @@
   </si>
   <si>
     <t>是否心理健康教育教师</t>
+  </si>
+  <si>
+    <t>KJ001</t>
+  </si>
+  <si>
+    <t>测66教师</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>居民身份证</t>
+  </si>
+  <si>
+    <t>35052515852552555</t>
   </si>
 </sst>
 </file>
@@ -591,13 +621,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,12 +668,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -653,6 +677,104 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -661,53 +783,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,82 +822,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -805,7 +829,19 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="57"/>
+      <color rgb="FF339966"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF339966"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -817,7 +853,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -837,13 +873,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,163 +1041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,6 +1058,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1040,22 +1106,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,45 +1153,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1130,10 +1166,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1142,137 +1178,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1280,6 +1316,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1288,31 +1327,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1661,22 +1706,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="2" max="3" width="20.75" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="26.625" customWidth="1"/>
     <col min="6" max="6" width="25.75" customWidth="1"/>
     <col min="7" max="7" width="27.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="32" style="2" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="21.625" customWidth="1"/>
@@ -1693,260 +1737,276 @@
     <col min="22" max="22" width="22.875" customWidth="1"/>
     <col min="23" max="23" width="25.375" customWidth="1"/>
     <col min="24" max="24" width="23.375" customWidth="1"/>
-    <col min="25" max="25" width="26.625" customWidth="1"/>
-    <col min="26" max="26" width="29.625" customWidth="1"/>
-    <col min="27" max="27" width="21.125" customWidth="1"/>
-    <col min="28" max="28" width="19.875" customWidth="1"/>
-    <col min="29" max="29" width="26.625" customWidth="1"/>
-    <col min="30" max="30" width="23.75" customWidth="1"/>
-    <col min="31" max="31" width="21.875" customWidth="1"/>
-    <col min="32" max="32" width="19.875" customWidth="1"/>
-    <col min="33" max="33" width="25.75" customWidth="1"/>
-    <col min="34" max="35" width="24.875" customWidth="1"/>
+    <col min="25" max="26" width="26.625" customWidth="1"/>
+    <col min="27" max="27" width="29.625" customWidth="1"/>
+    <col min="28" max="28" width="20.875" customWidth="1"/>
+    <col min="29" max="29" width="23.75" customWidth="1"/>
+    <col min="30" max="30" width="24.875" customWidth="1"/>
+    <col min="31" max="31" width="22.375" customWidth="1"/>
+    <col min="32" max="32" width="25.75" customWidth="1"/>
+    <col min="33" max="34" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="59.4" customHeight="1" spans="1:35">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="1" ht="59.4" customHeight="1" spans="1:34">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="172.8" customHeight="1" spans="1:35">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="1" customFormat="1" ht="172.8" customHeight="1" spans="1:34">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="s">
+      <c r="AC2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AD2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AE2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AF2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AG2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AH2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="26" customHeight="1" spans="2:35">
-      <c r="B3" s="8" t="s">
+    <row r="3" s="1" customFormat="1" ht="26" customHeight="1" spans="2:34">
+      <c r="B3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AC3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AD3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AE3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AF3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AG3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AH3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AI3" s="12" t="s">
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
         <v>56</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4">
+        <v>15860732250</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:AI1"/>
+    <mergeCell ref="B1:AH1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式错误" error="请输入正确的日期格式！" sqref="G4:G1048576 H4:I1048576">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式错误" error="请输入正确的日期格式！" sqref="I4:I1048576">
       <formula1>36526</formula1>
       <formula2>54789</formula2>
     </dataValidation>
